--- a/src/main/resources/Rediff.xlsx
+++ b/src/main/resources/Rediff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVI\IdeaProjects\EY-Trainings\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B939B6BD-6411-4CE0-A605-1F66A385A1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796A16C-9653-48A9-B1F9-B1E3B10530AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{95360C28-969B-40F7-B0B5-B404F18D3E49}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>TC_ID</t>
   </si>
   <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>icttest@rediffmail.com</t>
+  </si>
+  <si>
+    <t>Scriptname</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,103 +483,103 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Rediff.xlsx
+++ b/src/main/resources/Rediff.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVI\IdeaProjects\EY-Trainings\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796A16C-9653-48A9-B1F9-B1E3B10530AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D209171-F3A4-47E0-8A94-FF417BC25810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{95360C28-969B-40F7-B0B5-B404F18D3E49}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rediff1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
